--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54162C60-EAD2-3F47-8C3C-70C0C81F4E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="3585" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10220" yWindow="2120" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
   <si>
     <t>Done</t>
   </si>
@@ -292,12 +293,27 @@
   </si>
   <si>
     <t>(1) Learn Grunt with Examples: Automate Your Front End Workflo</t>
+  </si>
+  <si>
+    <t>16. Interview</t>
+  </si>
+  <si>
+    <t>(1) JavaScript Interview Prep: Practice Problems</t>
+  </si>
+  <si>
+    <t>(2) Learning Algorithms in JavaScript from Scratch</t>
+  </si>
+  <si>
+    <t>(Javascript)</t>
+  </si>
+  <si>
+    <t>(3) Learning Data Structures in JavaScript from Scratch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,27 +694,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -703,22 +722,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -726,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -734,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -742,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -750,17 +769,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -768,12 +787,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -781,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -789,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -797,27 +816,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -825,12 +844,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>28</v>
       </c>
@@ -838,37 +857,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>35</v>
       </c>
@@ -876,12 +895,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>37</v>
       </c>
@@ -889,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>38</v>
       </c>
@@ -897,17 +916,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>41</v>
       </c>
@@ -915,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>42</v>
       </c>
@@ -923,12 +942,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>44</v>
       </c>
@@ -936,12 +955,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>46</v>
       </c>
@@ -949,17 +968,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>49</v>
       </c>
@@ -967,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>50</v>
       </c>
@@ -975,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>51</v>
       </c>
@@ -983,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>52</v>
       </c>
@@ -991,12 +1010,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>54</v>
       </c>
@@ -1004,12 +1023,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>56</v>
       </c>
@@ -1017,37 +1036,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>63</v>
       </c>
@@ -1055,12 +1074,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>2</v>
       </c>
@@ -1068,22 +1087,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>66</v>
       </c>
@@ -1091,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>67</v>
       </c>
@@ -1099,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>68</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>69</v>
       </c>
@@ -1115,27 +1134,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>73</v>
       </c>
@@ -1143,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>74</v>
       </c>
@@ -1151,12 +1170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>76</v>
       </c>
@@ -1164,12 +1183,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>79</v>
       </c>
@@ -1177,54 +1196,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>89</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>91</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes.xlsx
+++ b/study_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54162C60-EAD2-3F47-8C3C-70C0C81F4E2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A308B-BCD4-984E-9971-00F29414165C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="2120" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1271,8 +1271,8 @@
       <c r="B139" t="s">
         <v>92</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>1</v>
+      <c r="C139" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
